--- a/AWSシステム構成図.xlsx
+++ b/AWSシステム構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614242F6-E8C5-4DC8-97A9-4E9A027AFE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F4818-8D9E-4BB2-8456-1B6452E3E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>　■VPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■AWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　■Amazon EC2 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　■Amazon Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　■MySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　■PHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　（LAMP環境）</t>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　■WordPress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　■Apache（Webサーバー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,31 +1017,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="M1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="2" s="1" customFormat="1"/>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
+    <row r="1" spans="13:13" s="1" customFormat="1"/>
+    <row r="2" spans="13:13" s="1" customFormat="1">
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="13:13" s="1" customFormat="1">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13" s="1" customFormat="1">
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13" s="1" customFormat="1">
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="13:13" s="1" customFormat="1">
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13" s="1" customFormat="1">
+      <c r="M7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13" s="1" customFormat="1">
+      <c r="M8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13" s="1" customFormat="1">
+      <c r="M9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13" s="1" customFormat="1">
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13" s="1" customFormat="1"/>
+    <row r="12" spans="13:13" s="1" customFormat="1"/>
+    <row r="13" spans="13:13" s="1" customFormat="1"/>
+    <row r="14" spans="13:13" s="1" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
